--- a/Excels/DaneshInfo.xlsx
+++ b/Excels/DaneshInfo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/Kharazi/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Documents/Kharazi/Datas/Kharazi/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB188FA3-9C92-1444-A338-0DBF625F5715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2A24FB-00E1-9640-824E-96E394BB5674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81826EBD-1972-0A4A-B82B-EECD0CC06588}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{81826EBD-1972-0A4A-B82B-EECD0CC06588}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="134">
   <si>
     <t>کدملی</t>
   </si>
@@ -314,13 +315,136 @@
   </si>
   <si>
     <t>09129372858</t>
+  </si>
+  <si>
+    <t>کلاس دانش</t>
+  </si>
+  <si>
+    <t>طاها</t>
+  </si>
+  <si>
+    <t>حسین زاده</t>
+  </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>نعمتی</t>
+  </si>
+  <si>
+    <t>امیررضا</t>
+  </si>
+  <si>
+    <t>دلیر</t>
+  </si>
+  <si>
+    <t>امیرعلی</t>
+  </si>
+  <si>
+    <t>اعرابی</t>
+  </si>
+  <si>
+    <t>ایلیا</t>
+  </si>
+  <si>
+    <t>اسفندیاری</t>
+  </si>
+  <si>
+    <t>محمدمهدی</t>
+  </si>
+  <si>
+    <t>مجدی</t>
+  </si>
+  <si>
+    <t>حمیدرضا</t>
+  </si>
+  <si>
+    <t>نیک‌نفس</t>
+  </si>
+  <si>
+    <t>شیخی</t>
+  </si>
+  <si>
+    <t>عظیمی</t>
+  </si>
+  <si>
+    <t>امیرمهدی</t>
+  </si>
+  <si>
+    <t>محمدی</t>
+  </si>
+  <si>
+    <t>آرش</t>
+  </si>
+  <si>
+    <t>کلاس جهاد</t>
+  </si>
+  <si>
+    <t>محمدجواد</t>
+  </si>
+  <si>
+    <t>علینقی</t>
+  </si>
+  <si>
+    <t>علیرضا</t>
+  </si>
+  <si>
+    <t>حمیدی‌مقام</t>
+  </si>
+  <si>
+    <t>محمدامین</t>
+  </si>
+  <si>
+    <t>عبدلی</t>
+  </si>
+  <si>
+    <t>سیدعلی</t>
+  </si>
+  <si>
+    <t>هاشمی</t>
+  </si>
+  <si>
+    <t>مهدی‌یار</t>
+  </si>
+  <si>
+    <t>احمدی‌فر</t>
+  </si>
+  <si>
+    <t>شکری</t>
+  </si>
+  <si>
+    <t>پارسا</t>
+  </si>
+  <si>
+    <t>صفاری</t>
+  </si>
+  <si>
+    <t>سلیمی</t>
+  </si>
+  <si>
+    <t>امیرصدرا</t>
+  </si>
+  <si>
+    <t>علی‌نیا</t>
+  </si>
+  <si>
+    <t>کشتکار</t>
+  </si>
+  <si>
+    <t>آریا</t>
+  </si>
+  <si>
+    <t>نجفی</t>
+  </si>
+  <si>
+    <t>کلاس کوشش</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,16 +457,72 @@
       <color theme="1"/>
       <name val="Gandom"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Sahel Black"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Gandom"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Gandom"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Gandom"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -350,19 +530,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -681,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8118B2-7BC4-5C4C-A1DD-01D406E63ED3}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,4 +1263,269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18627927-49A6-F84A-818E-1FE167FAADB3}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.65">
+      <c r="A1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>